--- a/data/BOXESCORE/20240914_LA-CHARITE.xlsx
+++ b/data/BOXESCORE/20240914_LA-CHARITE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanncoasse/Desktop/basket/Mantaille saison 2024-2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bdb52a81b4295a43/Documents/MANTAILLE/data/BOXESCORE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{930C536F-0B82-D24D-92A3-E63E4DEEFA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{930C536F-0B82-D24D-92A3-E63E4DEEFA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF53BD84-C3B0-40E6-9832-FD95078A43BF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,8 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$V$19</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -318,9 +307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -464,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,24 +606,24 @@
   <dimension ref="A3:AMK20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="10" width="7.765625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="3" customWidth="1"/>
-    <col min="12" max="17" width="7.765625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="6.53515625" style="3" customWidth="1"/>
-    <col min="20" max="20" width="13.19140625" style="2" customWidth="1"/>
-    <col min="21" max="1025" width="10.8515625" style="2" customWidth="1"/>
+    <col min="4" max="10" width="7.796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.09765625" style="3" customWidth="1"/>
+    <col min="12" max="17" width="7.796875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="6.296875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="6.5" style="3" customWidth="1"/>
+    <col min="20" max="20" width="13.19921875" style="2" customWidth="1"/>
+    <col min="21" max="1025" width="10.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I3" s="20" t="s">
         <v>0</v>
       </c>
@@ -655,7 +644,7 @@
       </c>
       <c r="S3" s="21"/>
     </row>
-    <row r="4" spans="1:22" ht="21.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -721,7 +710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -747,7 +736,7 @@
       <c r="U5" s="7"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -770,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H5:H16" si="0">F6+G6</f>
+        <f t="shared" ref="H6:H16" si="0">F6+G6</f>
         <v>2</v>
       </c>
       <c r="I6" s="8">
@@ -780,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" ref="K6:K16" si="1">I6/J6</f>
+        <f t="shared" ref="K6:K13" si="1">I6/J6</f>
         <v>0.5</v>
       </c>
       <c r="L6" s="8">
@@ -804,25 +793,25 @@
         <v>0</v>
       </c>
       <c r="R6" s="10">
-        <f t="shared" ref="R5:R17" si="4">L6+O6</f>
+        <f t="shared" ref="R6:R17" si="4">L6+O6</f>
         <v>6</v>
       </c>
       <c r="S6" s="10">
-        <f t="shared" ref="S5:S17" si="5">M6+P6</f>
+        <f t="shared" ref="S6:S17" si="5">M6+P6</f>
         <v>15</v>
       </c>
       <c r="T6" s="11">
-        <v>2.7777777777777776E-2</v>
+        <v>2.4652777777777777E-2</v>
       </c>
       <c r="U6" s="7">
         <v>15</v>
       </c>
       <c r="V6" s="12">
-        <f t="shared" ref="V5:V17" si="6">U6+H6+D6+B6+E6+((R6-S6)+(I6-J6)-C6)</f>
+        <f t="shared" ref="V6:V17" si="6">U6+H6+D6+B6+E6+((R6-S6)+(I6-J6)-C6)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -873,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="11">
-        <v>1.5150462962962963E-2</v>
+        <v>5.9027777777777776E-3</v>
       </c>
       <c r="U7" s="7">
         <v>0</v>
@@ -883,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
@@ -941,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="T8" s="11">
-        <v>2.7777777777777776E-2</v>
+        <v>9.7222222222222224E-3</v>
       </c>
       <c r="U8" s="7">
         <v>2</v>
@@ -951,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -977,7 +966,7 @@
       <c r="U9" s="7"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="T10" s="11">
-        <v>2.4467592592592593E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U10" s="7">
         <v>8</v>
@@ -1052,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="T11" s="11">
-        <v>2.7777777777777776E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="U11" s="7">
         <v>6</v>
@@ -1127,7 +1116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="T12" s="11">
-        <v>2.7777777777777776E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="U12" s="7">
         <v>3</v>
@@ -1188,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -1253,7 +1242,7 @@
         <v>19</v>
       </c>
       <c r="T13" s="11">
-        <v>2.7777777777777776E-2</v>
+        <v>2.361111111111111E-2</v>
       </c>
       <c r="U13" s="7">
         <v>21</v>
@@ -1263,7 +1252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
@@ -1289,7 +1278,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1347,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="T15" s="11">
-        <v>2.2928240740740739E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="U15" s="7">
         <v>10</v>
@@ -1357,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="11">
-        <v>1.5821759259259261E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="U16" s="7">
         <v>0</v>
@@ -1418,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1493,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
